--- a/models/feature_importances/feat_imp_regression/lightgbm_fried_feature_importances.xlsx
+++ b/models/feature_importances/feat_imp_regression/lightgbm_fried_feature_importances.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C538"/>
+  <dimension ref="A1:C536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,11 +453,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FORCEPREHENSION</t>
+          <t>SF36-29</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -479,11 +479,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SF36-29</t>
+          <t>SPPB7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SPPB7</t>
+          <t>mean_frequency_ML_AND_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,11 +505,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fried_State</t>
+          <t>SPPB06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -518,11 +518,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ021_</t>
+          <t>Sexe</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -531,11 +531,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S36-Energy_fatigue</t>
+          <t>range_ratio_ML_AND_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -544,11 +544,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SPPB06</t>
+          <t>FORCEPREHENSION</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -557,11 +557,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ste_cvSwT_R_baseline</t>
+          <t>leftHandV1_baseline</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -570,11 +570,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Stu_RMS_aCCF_baseline</t>
+          <t>centroid_frequency_Power_Spectrum_Density_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -583,11 +583,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RoliTronc_baseline</t>
+          <t>peak_velocity_pos_SPD_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sta_Lyap_AccXWaist_baseline</t>
+          <t>long_time_scaling_Diffusion_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,7 +609,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>critical_time_Diffusion_ML_YF_baseline</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -622,7 +622,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>frequency_dispersion_Power_Spectrum_Density_AP_YF_baseline</t>
+          <t>FROPCOM0007_SQ021_</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -635,11 +635,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SPPB_06_07_Variation_Vitesse_Relative</t>
+          <t>critical_time_Diffusion_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -648,11 +648,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Age a l inclusion</t>
+          <t>Smo_Ent_AccZWaist_baseline</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -661,11 +661,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HHIE01_SQ009_</t>
+          <t>frequency_mode_Power_Spectrum_Density_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -674,11 +674,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FROPCOM0027</t>
+          <t>Ste_FFTqgAP_LB_baseline</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -687,11 +687,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>mean_frequency_AP_YO_baseline</t>
+          <t>S36-Energy_fatigue</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -700,11 +700,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Spr_SwT_L_baseline</t>
+          <t>Variation du poids</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Smo_Ent_AccYWaist_baseline</t>
+          <t>FRAGIRE06TEST1_SQ001_SQ004_</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,7 +726,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>long_time_scaling_Diffusion_ML_YO_baseline</t>
+          <t>frequency_quotient_Power_Spectrum_Density_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,7 +739,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Smo_ROM_anML_baseline</t>
+          <t>frequency_mode_Power_Spectrum_Density_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,7 +752,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>rightHandV2_baseline</t>
+          <t>Smo_Ent_AccYWaist_baseline</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -765,7 +765,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BMI</t>
+          <t>Age a l inclusion</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,7 +778,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>maximal_distance_AP_YF_baseline</t>
+          <t>Spr_UtrT_baseline</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -791,7 +791,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>critical_time_Diffusion_AP_YO_baseline</t>
+          <t>SF3601</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -804,7 +804,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>maximal_distance_Radius_YO_baseline</t>
+          <t>EXAMCLIN01_SQ001_SQ001_</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -817,7 +817,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>mean_frequency_ML_AND_AP_YO_baseline</t>
+          <t>SPPB_06_07_Variation_Vitesse_Relative</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,7 +830,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sta_Lyap_GyrXWaist_baseline</t>
+          <t>Stu_RMS_aCCF_baseline</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,11 +843,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SF3609_SQ007_</t>
+          <t>critical_time_Diffusion_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -856,11 +856,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SF3601</t>
+          <t>frequency_quotient_Power_Spectrum_Density_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -869,11 +869,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MeanStepDuration_baseline</t>
+          <t>LFS_ML_AND_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -882,11 +882,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>short_time_scaling_Diffusion_ML_YO_baseline</t>
+          <t>SF3603_SQ005_</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -895,11 +895,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>frequency_mode_Power_Spectrum_Density_ML_YF_baseline</t>
+          <t>mean_value_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -908,11 +908,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ012_</t>
+          <t>mean_value_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Smo_Ent_GyrYWaist_baseline</t>
+          <t>leftHandV2_baseline</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,7 +934,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>energy_content_05_2_Power_Spectrum_Density_ML_YO_baseline</t>
+          <t>mean_velocity_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,7 +947,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>mean_peak_Sway_Density_YO_baseline</t>
+          <t>FRAGIRE CALCUL TEST 3 VITMARCH.</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -960,7 +960,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>frequency_quotient_Power_Spectrum_Density_ML_YO_baseline</t>
+          <t>phase_plane_parameter_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -973,7 +973,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sta_Att_gML_baseline</t>
+          <t>zero_crossing_SPD_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -986,7 +986,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Smo_Ent_GyrZWaist_baseline</t>
+          <t>fractal_dimension_ML_AND_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -999,7 +999,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sta_Lyap_AccZWaist_baseline</t>
+          <t>FRAGIRE13</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1012,7 +1012,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>critical_time_Diffusion_AP_YF_baseline</t>
+          <t>FROPCOM0016</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1025,7 +1025,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>total_power_Power_Spectrum_Density_ML_YF_baseline</t>
+          <t>Sta_RMS_gAP_LB_baseline</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1038,7 +1038,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>leftHandV2_baseline</t>
+          <t>centroid_frequency_Power_Spectrum_Density_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1051,11 +1051,11 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SPPB9</t>
+          <t>SCORE FROP COM AVEC AMTS_MMSE_sur_3_SCORE TOTAL FROPCOM</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1064,11 +1064,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SCORE TOTAL SPPB</t>
+          <t>power_frequency_50_Power_Spectrum_Density_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1077,11 +1077,11 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>long_time_scaling_Diffusion_AP_YF_baseline</t>
+          <t>SCORE FROP COM HORS AMTS SCORE FROPCOM0011</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1090,11 +1090,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sym_P1P2_aCC_LB2_baseline</t>
+          <t>CycleVariability_baseline</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1103,11 +1103,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Ste_cvT_baseline</t>
+          <t>total_power_Power_Spectrum_Density_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1116,11 +1116,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>FRAGIRE06TEST1_SQ001_SQ003_</t>
+          <t>FRAGIRE06TEST1_SQ001_SQ001_</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1129,11 +1129,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>long_time_scaling_Diffusion_ML_YF_baseline</t>
+          <t>mean_frequency_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1142,11 +1142,11 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>energy_content_above_2_Power_Spectrum_Density_AP_YF_baseline</t>
+          <t>energy_content_above_2_Power_Spectrum_Density_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1155,7 +1155,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>energy_content_below_05_Power_Spectrum_Density_AP_YO_baseline</t>
+          <t>mean_peak_Sway_Density_YO_baseline</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1168,7 +1168,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>centroid_frequency_Power_Spectrum_Density_ML_YF_baseline</t>
+          <t>mean_distance_Radius_YF_baseline</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1181,7 +1181,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SF36-28</t>
+          <t>rms_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1194,7 +1194,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>FRAGIRE13</t>
+          <t>VINICODEX003</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,7 +1207,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HADS TOTAL A</t>
+          <t>FRAGIRE CALCUL PONDERATION</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1220,7 +1220,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>fractal_dimension_ML_AND_AP_YO_baseline</t>
+          <t>FRAGIRE04 CALCUL</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1233,7 +1233,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>frequency_dispersion_Power_Spectrum_Density_AP_YO_baseline</t>
+          <t>mean_frequency_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1246,7 +1246,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SCORE EPICE GLOBAL</t>
+          <t>FRAGIRE06TEST1_SQ001_SQ002_</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1259,7 +1259,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>centroid_frequency_Power_Spectrum_Density_AP_YO_baseline</t>
+          <t>centroid_frequency_Power_Spectrum_Density_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1272,7 +1272,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>critical_displacement_Diffusion_AP_YF_baseline</t>
+          <t>MMSE06LANGAGE1_SQ003_</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1285,7 +1285,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>frequency_mode_Power_Spectrum_Density_ML_YO_baseline</t>
+          <t>MNADEPISTAGESCORE</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1298,7 +1298,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>FROPCOM0016</t>
+          <t>HADS TOTAL A</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1311,7 +1311,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>peak_velocity_pos_SPD_AP_YO_baseline</t>
+          <t>power_frequency_50_Power_Spectrum_Density_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1324,7 +1324,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SF36-Emotional well-being</t>
+          <t>frequency_dispersion_Power_Spectrum_Density_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1337,7 +1337,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>phase_plane_parameter_ML_YO_baseline</t>
+          <t>Sta_ROM_lML_baseline</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1350,7 +1350,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>FRAGIRE08</t>
+          <t>Sym_P1P2_aAP_LB2_baseline</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,7 +1363,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SPPB_06_07_Variation_Vitesse_Absolue</t>
+          <t>HADS010</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1376,7 +1376,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CycleVariability_baseline</t>
+          <t>HADS011</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1389,7 +1389,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>rightHandV1_baseline</t>
+          <t>SF3611_SQ001_</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,7 +1402,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ICOPE003_SQ003_</t>
+          <t>Ste_cvT_baseline</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1415,11 +1415,11 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Syn_ffT_baseline</t>
+          <t>Ste_FFTqaCC_LB_baseline</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -1428,11 +1428,11 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Ste_FFTqgAP_LB_baseline</t>
+          <t>SF3610</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -1441,11 +1441,11 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MNADEPISTAGESCORE</t>
+          <t>total_power_Power_Spectrum_Density_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>mean_value_AP_YO_baseline</t>
+          <t>VINICODEX0004_SQ006_</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1467,7 +1467,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>EXAMCLIN01_SQ003_SQ001_</t>
+          <t>principal_sway_direction_ML_AND_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,7 +1480,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>zero_crossing_SPD_ML_YO_baseline</t>
+          <t>FRAGIRE12</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,7 +1493,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SCORE FROP COM AVEC AMTS_MMSE_sur_3_SCORE TOTAL FROPCOM</t>
+          <t>centroid_frequency_Power_Spectrum_Density_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1506,7 +1506,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SCORE FROP COM HORS AMTS SCORE FROPCOM0011</t>
+          <t>frequency_mode_Power_Spectrum_Density_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1519,7 +1519,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SCORE FROP COM SCREEN</t>
+          <t>critical_displacement_Diffusion_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1532,7 +1532,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Ste_P2_aAP_LB2_baseline</t>
+          <t>mean_distance_peak_Sway_Density_YO_baseline</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1545,7 +1545,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>mean_value_ML_YO_baseline</t>
+          <t>Ste_cvSwT_R_baseline</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1558,7 +1558,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>LFS_ML_AND_AP_YF_baseline</t>
+          <t>SPPB_06_07_Variation_Vitesse_Absolue</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1571,7 +1571,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>zero_crossing_SPD_AP_YO_baseline</t>
+          <t>SF3609_SQ002_</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1584,7 +1584,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ICOPE05 TROUBLE AUDITIF</t>
+          <t>Ste_cvSwT_L_baseline</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1597,7 +1597,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>peak_velocity_pos_SPD_ML_YF_baseline</t>
+          <t>coefficient_sway_direction_ML_AND_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1610,7 +1610,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>long_time_diffusion_Diffusion_AP_YF_baseline</t>
+          <t>LFS_ML_AND_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1623,7 +1623,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>mean_frequency_ML_YO_baseline</t>
+          <t>short_time_scaling_Diffusion_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1636,7 +1636,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>mean_value_AP_YF_baseline</t>
+          <t>peak_velocity_pos_SPD_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,7 +1649,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Ste_FFTqaML_LB_baseline</t>
+          <t>FROPCOM0027</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,7 +1662,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>LFS_ML_AND_AP_YO_baseline</t>
+          <t>critical_displacement_Diffusion_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1675,7 +1675,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>rms_Radius_YO_baseline</t>
+          <t>EXAMCLIN01_SQ003_SQ001_</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,7 +1688,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>mean_velocity_ML_YO_baseline</t>
+          <t>Syn_ffT_baseline</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,7 +1701,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>sway_area_per_second_ML_AND_AP_YF_baseline</t>
+          <t>frequency_dispersion_Power_Spectrum_Density_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,7 +1714,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>range_ML_AND_AP_YO_baseline</t>
+          <t>HADS002</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1727,7 +1727,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>range_ratio_ML_AND_AP_YO_baseline</t>
+          <t>RoliTronc_baseline</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,7 +1740,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>rms_ML_YO_baseline</t>
+          <t>Sta_Lyap_GyrYWaist_baseline</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1753,7 +1753,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>coefficient_sway_direction_ML_AND_AP_YO_baseline</t>
+          <t>ACUITEVISUELLE01_SQ003_</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1766,7 +1766,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>maximal_distance_AP_YO_baseline</t>
+          <t>MFESCALE Dimension activites d interieur items_1_9</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1779,7 +1779,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>principal_sway_direction_ML_AND_AP_YF_baseline</t>
+          <t>MeanStepDuration_baseline</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1805,7 +1805,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SF3602</t>
+          <t>Smo_Ent_GyrZWaist_baseline</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1818,7 +1818,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ014_</t>
+          <t>Smo_ROM_anML_baseline</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1831,7 +1831,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ACUITEVISUELLE01_SQ001_</t>
+          <t>SF36-Physical functioning</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,7 +1844,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>range_ratio_ML_AND_AP_YF_baseline</t>
+          <t>Spr_SwT_L_baseline</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1857,7 +1857,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MFESCALE Dimension activites d exterieur  items_10_14</t>
+          <t>mean_distance_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1870,7 +1870,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>FRAGIRE CALCUL PONDERATION</t>
+          <t>Sta_Att_aAP_baseline</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,7 +1883,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>range_AP_YF_baseline</t>
+          <t>maximal_distance_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1896,7 +1896,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MFESCALE SCORE GLOBAL</t>
+          <t>FROPCOM0006 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1909,7 +1909,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sta_Att_aAP_baseline</t>
+          <t>mean_peak_Sway_Density_YF_baseline</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1922,7 +1922,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>range_ML_YO_baseline</t>
+          <t>short_time_scaling_Diffusion_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1935,7 +1935,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Ste_cvSwT_L_baseline</t>
+          <t>FRAGIRE01_SQ001_</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,7 +1948,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>energy_content_below_05_Power_Spectrum_Density_ML_YF_baseline</t>
+          <t>Sta_Att_gCC_baseline</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1961,7 +1961,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>FROPCOM0002</t>
+          <t>Sta_Att_aML_baseline</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1974,7 +1974,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>AvgSpeed_baseline</t>
+          <t>short_time_scaling_Diffusion_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1987,7 +1987,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>energy_content_below_05_Power_Spectrum_Density_AP_YF_baseline</t>
+          <t>energy_content_05_2_Power_Spectrum_Density_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2000,7 +2000,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ015_</t>
+          <t>critical_displacement_Diffusion_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2013,7 +2013,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>energy_content_05_2_Power_Spectrum_Density_ML_YF_baseline</t>
+          <t>Sta_Lyap_AccXWaist_baseline</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2026,7 +2026,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SF3610</t>
+          <t>mean_value_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2039,7 +2039,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Score_YF_baseline</t>
+          <t>Patient bénéficiant de Lunettes de vue</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2052,7 +2052,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SF3611_SQ001_</t>
+          <t>Sta_Lyap_GyrXWaist_baseline</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2065,7 +2065,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>HADS011</t>
+          <t>ACUITEVISUELLE01_SQ005_</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,7 +2078,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>HADS009</t>
+          <t>SCORE TOTAL SPPB</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2091,11 +2091,11 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sexe</t>
+          <t>zero_crossing_SPD_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -2104,11 +2104,11 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Smo_Ent_AccXWaist_baseline</t>
+          <t>energy_content_below_05_Power_Spectrum_Density_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -2117,11 +2117,11 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>VINCQ08</t>
+          <t>peak_velocity_neg_SPD_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -2130,11 +2130,11 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>frequency_mode_Power_Spectrum_Density_AP_YF_baseline</t>
+          <t>total_power_Power_Spectrum_Density_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -2143,11 +2143,11 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>FRAGIRE06TEST1_SQ001_SQ001_</t>
+          <t>mean_frequency_ML_AND_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -2156,11 +2156,11 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SwingMeanStrideDuration_baseline</t>
+          <t>power_frequency_50_Power_Spectrum_Density_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -2169,11 +2169,11 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>short_time_diffusion_Diffusion_ML_YF_baseline</t>
+          <t>power_frequency_95_Power_Spectrum_Density_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -2182,11 +2182,11 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>long_time_diffusion_Diffusion_ML_YF_baseline</t>
+          <t>frequency_mode_Power_Spectrum_Density_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -2195,11 +2195,11 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>centroid_frequency_Power_Spectrum_Density_ML_YO_baseline</t>
+          <t>mean_distance_peak_Sway_Density_YF_baseline</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -2208,11 +2208,11 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Stu_RMS_aAPF_baseline</t>
+          <t>peak_velocity_all_SPD_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -2221,11 +2221,11 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>frequency_mode_Power_Spectrum_Density_AP_YO_baseline</t>
+          <t>peak_velocity_all_SPD_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -2234,11 +2234,11 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>S36-25</t>
+          <t>peak_velocity_pos_SPD_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -2247,11 +2247,11 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>FROPCOM0012 - COTATION QUESTION</t>
+          <t>power_frequency_95_Power_Spectrum_Density_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -2260,11 +2260,11 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>HADS002</t>
+          <t>mean_frequency_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -2273,11 +2273,11 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>peak_velocity_pos_SPD_AP_YF_baseline</t>
+          <t>range_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -2286,11 +2286,11 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sway_Density_YO_baseline</t>
+          <t>peak_velocity_neg_SPD_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -2299,11 +2299,11 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>mean_distance_peak_Sway_Density_YF_baseline</t>
+          <t>SF36-36</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -2312,7 +2312,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>mean_frequency_ML_AND_AP_YF_baseline</t>
+          <t>SF36-35</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2325,7 +2325,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>peak_velocity_neg_SPD_ML_YF_baseline</t>
+          <t>SF3611_SQ003_</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,7 +2338,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>phase_plane_parameter_ML_YF_baseline</t>
+          <t>SF36-34</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,7 +2351,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sym_HRaAP_LB_baseline</t>
+          <t>SF3611_SQ002_</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -2364,7 +2364,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>mean_frequency_AP_YF_baseline</t>
+          <t>SF36-33</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2377,7 +2377,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>mean_peak_Sway_Density_YF_baseline</t>
+          <t>SF36-32</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -2390,7 +2390,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>mean_frequency_ML_YF_baseline</t>
+          <t>SF36-31</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -2403,7 +2403,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>phase_plane_parameter_AP_YF_baseline</t>
+          <t>SF3609_SQ009_</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -2416,7 +2416,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>peak_velocity_all_SPD_ML_YF_baseline</t>
+          <t>SF36-30</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -2429,7 +2429,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>peak_velocity_all_SPD_AP_YF_baseline</t>
+          <t>SF3609_SQ008_</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2442,7 +2442,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>fractal_dimension_ML_AND_AP_YF_baseline</t>
+          <t>SF3609_SQ007_</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2455,7 +2455,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>peak_velocity_neg_SPD_AP_YF_baseline</t>
+          <t>SF36-28</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2468,7 +2468,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>zero_crossing_SPD_ML_YF_baseline</t>
+          <t>SF3609_SQ006_</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,7 +2481,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sym_HRaCC_LB_baseline</t>
+          <t>SF36-27</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2494,7 +2494,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>zero_crossing_SPD_AP_YF_baseline</t>
+          <t>SF3609_SQ005_</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2507,7 +2507,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sym_P1P2_aAP_LB2_baseline</t>
+          <t>SF36-26</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2520,7 +2520,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>range_ML_YF_baseline</t>
+          <t>SF3609_SQ004_</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2533,7 +2533,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>mean_velocity_ML_AND_AP_YF_baseline</t>
+          <t>S36-25</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2546,7 +2546,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SF36-31</t>
+          <t>SF3609_SQ003_</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2559,7 +2559,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SF36-Physical functioning</t>
+          <t>SF3611_SQ004_</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2572,7 +2572,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SF36-36</t>
+          <t xml:space="preserve">SF36-Role limitations due to physical health </t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2585,7 +2585,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SF3611_SQ004_</t>
+          <t>phase_plane_parameter_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2598,7 +2598,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SF36-35</t>
+          <t>SF36-Role limitations due to emotional problems</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2611,7 +2611,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SF3611_SQ003_</t>
+          <t>phase_plane_parameter_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2624,7 +2624,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SF36-34</t>
+          <t>sway_area_per_second_ML_AND_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2637,7 +2637,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SF3611_SQ002_</t>
+          <t>mean_velocity_ML_AND_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2650,7 +2650,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>SF36-33</t>
+          <t>mean_velocity_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2663,7 +2663,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>SF36-32</t>
+          <t>confidence_ellipse_area_ML_AND_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2676,7 +2676,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SF3609_SQ009_</t>
+          <t>planar_deviation_ML_AND_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,7 +2689,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>mean_velocity_AP_YF_baseline</t>
+          <t>range_ratio_ML_AND_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2702,7 +2702,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SF36-30</t>
+          <t>range_ML_AND_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2715,7 +2715,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SF3609_SQ008_</t>
+          <t>energy_content_05_2_Power_Spectrum_Density_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2728,7 +2728,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>STADE FRAGILITE SELON FRAGIRE</t>
+          <t>range_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2741,7 +2741,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Frailty_State_GFST</t>
+          <t>rms_Radius_YF_baseline</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2754,7 +2754,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SF3609_SQ006_</t>
+          <t>rms_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2767,7 +2767,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SF36-27</t>
+          <t>maximal_distance_Radius_YF_baseline</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2780,7 +2780,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>SF3609_SQ005_</t>
+          <t>maximal_distance_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2793,7 +2793,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SF36-26</t>
+          <t>mean_distance_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2806,7 +2806,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SF3609_SQ004_</t>
+          <t>SF36-General health</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2819,7 +2819,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t xml:space="preserve">SF36-Role limitations due to physical health </t>
+          <t>SF36-Pain</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,7 +2832,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SF36-Role limitations due to emotional problems</t>
+          <t>SF36-Social functioning</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2845,7 +2845,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>FROP COM INTERPRETATION</t>
+          <t>SF36-Emotional well-being</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2858,7 +2858,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SF36-Social functioning</t>
+          <t>energy_content_below_05_Power_Spectrum_Density_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2871,7 +2871,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Syn_dsT_baseline</t>
+          <t>Nombre de chutes suivi mensuel pendant 6 mois</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2884,7 +2884,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>mean_velocity_ML_YF_baseline</t>
+          <t>energy_content_05_2_Power_Spectrum_Density_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2897,7 +2897,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>confidence_ellipse_area_ML_AND_AP_YF_baseline</t>
+          <t>Sway_Density_YF_baseline</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2910,7 +2910,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>coefficient_sway_direction_ML_AND_AP_YF_baseline</t>
+          <t>Smo_Ent_GyrYWaist_baseline</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2923,7 +2923,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>planar_deviation_ML_AND_AP_YF_baseline</t>
+          <t>Smo_Ent_GyrXWaist_baseline</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2936,7 +2936,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>range_ML_AND_AP_YF_baseline</t>
+          <t>Smo_Ent_AccXWaist_baseline</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2949,7 +2949,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>power_frequency_50_Power_Spectrum_Density_ML_YF_baseline</t>
+          <t>DoubleStance_baseline</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,7 +2962,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>rms_Radius_YF_baseline</t>
+          <t>AvgSpeed_baseline</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2975,7 +2975,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>rms_AP_YF_baseline</t>
+          <t>Vitesse_Moyenne_YO_baseline</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,7 +2988,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>rms_ML_YF_baseline</t>
+          <t>Vitesse_Moyenne_YF_baseline</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3001,7 +3001,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>maximal_distance_Radius_YF_baseline</t>
+          <t>Variance_Latérale_YO_baseline</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,7 +3014,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>leftHandV1_baseline</t>
+          <t>Variance_Latérale_YF_baseline</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -3027,7 +3027,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>maximal_distance_ML_YF_baseline</t>
+          <t>Sway_Density_YO_baseline</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3040,7 +3040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>mean_distance_Radius_YF_baseline</t>
+          <t>Surface_YO_baseline</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,7 +3053,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>mean_distance_AP_YF_baseline</t>
+          <t>energy_content_above_2_Power_Spectrum_Density_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -3066,7 +3066,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>mean_distance_ML_YF_baseline</t>
+          <t>Surface_YF_baseline</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -3079,7 +3079,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>mean_value_ML_YF_baseline</t>
+          <t>Score_YO_baseline</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3092,7 +3092,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>SF36-General health</t>
+          <t>Score_YF_baseline</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3105,7 +3105,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>SF36-Pain</t>
+          <t>long_time_scaling_Diffusion_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -3118,7 +3118,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>total_power_Power_Spectrum_Density_AP_YF_baseline</t>
+          <t>critical_displacement_Diffusion_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3131,7 +3131,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Variance_Latérale_YO_baseline</t>
+          <t>long_time_diffusion_Diffusion_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3144,7 +3144,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>power_frequency_50_Power_Spectrum_Density_AP_YF_baseline</t>
+          <t>short_time_diffusion_Diffusion_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,7 +3157,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>energy_content_05_2_Power_Spectrum_Density_AP_YO_baseline</t>
+          <t>critical_time_Diffusion_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3170,7 +3170,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>energy_content_below_05_Power_Spectrum_Density_ML_YO_baseline</t>
+          <t>long_time_diffusion_Diffusion_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -3183,7 +3183,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Smo_Ent_GyrXWaist_baseline</t>
+          <t>short_time_diffusion_Diffusion_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -3196,7 +3196,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>frequency_dispersion_Power_Spectrum_Density_ML_YO_baseline</t>
+          <t>Spr_SteT_baseline</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,7 +3209,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Spr_SteT_baseline</t>
+          <t>Spr_SwT_R_baseline</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -3222,7 +3222,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Spr_SwT_R_baseline</t>
+          <t>Sta_Att_gAP_baseline</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -3235,7 +3235,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>power_frequency_95_Power_Spectrum_Density_AP_YO_baseline</t>
+          <t>Sta_Att_gML_baseline</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3248,7 +3248,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>power_frequency_95_Power_Spectrum_Density_ML_YO_baseline</t>
+          <t>FROP COM INTERPRETATION</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -3261,7 +3261,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>power_frequency_50_Power_Spectrum_Density_AP_YO_baseline</t>
+          <t>rightHandV2_baseline</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -3274,7 +3274,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>power_frequency_50_Power_Spectrum_Density_ML_YO_baseline</t>
+          <t>rightHandV1_baseline</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,7 +3287,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Spr_UtrT_baseline</t>
+          <t>Syn_dsT_baseline</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -3300,7 +3300,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>total_power_Power_Spectrum_Density_AP_YO_baseline</t>
+          <t>Sym_P1P2_aCC_LB2_baseline</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -3313,7 +3313,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>total_power_Power_Spectrum_Density_ML_YO_baseline</t>
+          <t>Sym_HRaCC_LB_baseline</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -3326,7 +3326,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Sta_Att_aML_baseline</t>
+          <t>Sym_HRaAP_LB_baseline</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,7 +3339,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>mean_distance_peak_Sway_Density_YO_baseline</t>
+          <t>SwingMeanStrideDuration_baseline</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -3352,7 +3352,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Sta_Att_gAP_baseline</t>
+          <t>Stu_turnN_baseline</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -3365,7 +3365,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>peak_velocity_all_SPD_AP_YO_baseline</t>
+          <t>Stu_RMS_aAPF_baseline</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3378,7 +3378,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>peak_velocity_neg_SPD_AP_YO_baseline</t>
+          <t>Stu_L_baseline</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3391,7 +3391,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Smo_Ent_AccZWaist_baseline</t>
+          <t>Ste_P2_aCC_LB2_baseline</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,7 +3404,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>energy_content_above_2_Power_Spectrum_Density_ML_YO_baseline</t>
+          <t>Ste_P2_aAP_LB2_baseline</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,7 +3417,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>peak_velocity_neg_SPD_ML_YO_baseline</t>
+          <t>Ste_FFTqgML_LB_baseline</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,7 +3430,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>energy_content_above_2_Power_Spectrum_Density_AP_YO_baseline</t>
+          <t>Ste_FFTqgCC_LB_baseline</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -3443,7 +3443,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Sway_Density_YF_baseline</t>
+          <t>Ste_FFTqaML_LB_baseline</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,7 +3456,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Surface_YO_baseline</t>
+          <t>Ste_FFTqaAP_LB_baseline</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3469,7 +3469,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Surface_YF_baseline</t>
+          <t>Sta_RMS_aML_LB_baseline</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -3482,7 +3482,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Score_YO_baseline</t>
+          <t>Sta_Lyap_GyrZWaist_baseline</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,7 +3495,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>long_time_scaling_Diffusion_AP_YO_baseline</t>
+          <t>Sta_Lyap_AccZWaist_baseline</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -3508,7 +3508,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>short_time_scaling_Diffusion_AP_YO_baseline</t>
+          <t>Sta_Lyap_AccYWaist_baseline</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -3521,7 +3521,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>critical_displacement_Diffusion_AP_YO_baseline</t>
+          <t>frequency_quotient_Power_Spectrum_Density_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -3534,7 +3534,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Vitesse_Moyenne_YF_baseline</t>
+          <t>energy_content_05_2_Power_Spectrum_Density_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -3547,7 +3547,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>long_time_diffusion_Diffusion_AP_YO_baseline</t>
+          <t>energy_content_above_2_Power_Spectrum_Density_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -3560,7 +3560,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>short_time_diffusion_Diffusion_AP_YO_baseline</t>
+          <t>mean_distance_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -3573,7 +3573,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Vitesse_Moyenne_YO_baseline</t>
+          <t>range_ML_AND_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -3586,7 +3586,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>critical_displacement_Diffusion_ML_YO_baseline</t>
+          <t>range_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -3599,7 +3599,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>critical_time_Diffusion_ML_YO_baseline</t>
+          <t>range_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3612,7 +3612,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>long_time_diffusion_Diffusion_ML_YO_baseline</t>
+          <t>rms_Radius_YO_baseline</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3625,7 +3625,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>short_time_diffusion_Diffusion_ML_YO_baseline</t>
+          <t>rms_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -3638,7 +3638,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>frequency_quotient_Power_Spectrum_Density_AP_YO_baseline</t>
+          <t>rms_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -3651,7 +3651,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>DoubleStance_baseline</t>
+          <t>maximal_distance_Radius_YO_baseline</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -3664,7 +3664,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>peak_velocity_all_SPD_ML_YO_baseline</t>
+          <t>maximal_distance_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -3677,7 +3677,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Sta_Att_gCC_baseline</t>
+          <t>mean_distance_Radius_YO_baseline</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -3690,7 +3690,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>power_frequency_95_Power_Spectrum_Density_ML_YF_baseline</t>
+          <t>mean_distance_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -3703,7 +3703,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>mean_distance_AP_YO_baseline</t>
+          <t>mean_value_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -3716,7 +3716,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>short_time_scaling_Diffusion_AP_YF_baseline</t>
+          <t>energy_content_below_05_Power_Spectrum_Density_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -3729,7 +3729,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Ste_FFTqgCC_LB_baseline</t>
+          <t>long_time_scaling_Diffusion_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -3742,7 +3742,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>short_time_diffusion_Diffusion_AP_YF_baseline</t>
+          <t>short_time_scaling_Diffusion_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -3755,7 +3755,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Ste_FFTqgML_LB_baseline</t>
+          <t>long_time_diffusion_Diffusion_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -3768,7 +3768,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Variance_Latérale_YF_baseline</t>
+          <t>short_time_diffusion_Diffusion_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,7 +3781,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>short_time_scaling_Diffusion_ML_YF_baseline</t>
+          <t>long_time_scaling_Diffusion_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3794,7 +3794,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>critical_displacement_Diffusion_ML_YF_baseline</t>
+          <t>critical_time_Diffusion_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3807,7 +3807,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Ste_P2_aCC_LB2_baseline</t>
+          <t>long_time_diffusion_Diffusion_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3820,7 +3820,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>frequency_quotient_Power_Spectrum_Density_AP_YF_baseline</t>
+          <t>short_time_diffusion_Diffusion_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3846,7 +3846,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>energy_content_above_2_Power_Spectrum_Density_ML_YF_baseline</t>
+          <t>energy_content_above_2_Power_Spectrum_Density_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3859,7 +3859,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>energy_content_05_2_Power_Spectrum_Density_AP_YF_baseline</t>
+          <t>planar_deviation_ML_AND_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,7 +3872,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Stu_L_baseline</t>
+          <t>coefficient_sway_direction_ML_AND_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3885,7 +3885,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>frequency_dispersion_Power_Spectrum_Density_ML_YF_baseline</t>
+          <t>confidence_ellipse_area_ML_AND_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3898,7 +3898,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>centroid_frequency_Power_Spectrum_Density_AP_YF_baseline</t>
+          <t>principal_sway_direction_ML_AND_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3911,7 +3911,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Stu_turnN_baseline</t>
+          <t>energy_content_below_05_Power_Spectrum_Density_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,7 +3924,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>power_frequency_95_Power_Spectrum_Density_AP_YF_baseline</t>
+          <t>frequency_dispersion_Power_Spectrum_Density_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3937,7 +3937,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>mean_distance_ML_YO_baseline</t>
+          <t>frequency_dispersion_Power_Spectrum_Density_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,7 +3950,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>mean_distance_Radius_YO_baseline</t>
+          <t>power_frequency_95_Power_Spectrum_Density_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3963,7 +3963,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>peak_velocity_pos_SPD_ML_YO_baseline</t>
+          <t>power_frequency_95_Power_Spectrum_Density_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3976,7 +3976,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Ste_FFTqaCC_LB_baseline</t>
+          <t>power_frequency_50_Power_Spectrum_Density_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,7 +3989,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Sta_Lyap_AccYWaist_baseline</t>
+          <t>total_power_Power_Spectrum_Density_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -4002,7 +4002,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Sta_Lyap_GyrYWaist_baseline</t>
+          <t>mean_frequency_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -4015,7 +4015,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>phase_plane_parameter_AP_YO_baseline</t>
+          <t>peak_velocity_all_SPD_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4028,7 +4028,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Sta_Lyap_GyrZWaist_baseline</t>
+          <t>peak_velocity_neg_SPD_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -4041,7 +4041,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Sta_RMS_aML_LB_baseline</t>
+          <t>zero_crossing_SPD_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,7 +4054,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>sway_area_per_second_ML_AND_AP_YO_baseline</t>
+          <t>peak_velocity_all_SPD_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4067,7 +4067,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>mean_velocity_ML_AND_AP_YO_baseline</t>
+          <t>peak_velocity_neg_SPD_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -4080,7 +4080,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Sta_RMS_gAP_LB_baseline</t>
+          <t>peak_velocity_pos_SPD_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -4093,7 +4093,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>SF36-24</t>
+          <t>zero_crossing_SPD_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,7 +4106,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Sta_ROM_lML_baseline</t>
+          <t>fractal_dimension_ML_AND_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -4119,7 +4119,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>mean_velocity_AP_YO_baseline</t>
+          <t>phase_plane_parameter_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4132,7 +4132,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>principal_sway_direction_ML_AND_AP_YO_baseline</t>
+          <t>sway_area_per_second_ML_AND_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,7 +4145,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Ste_FFTqaAP_LB_baseline</t>
+          <t>mean_velocity_ML_AND_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -4158,7 +4158,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>confidence_ellipse_area_ML_AND_AP_YO_baseline</t>
+          <t>mean_velocity_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -4171,7 +4171,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>planar_deviation_ML_AND_AP_YO_baseline</t>
+          <t>mean_velocity_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -4184,7 +4184,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>range_AP_YO_baseline</t>
+          <t>SF36-24</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4197,7 +4197,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>rms_AP_YO_baseline</t>
+          <t>SF3604_SQ001_</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -4210,7 +4210,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>SF3609_SQ003_</t>
+          <t>SF36-23</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4223,7 +4223,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Nombre de chutes suivi mensuel pendant 6 mois</t>
+          <t>FROPCOM0009 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -4236,7 +4236,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>SF3609_SQ002_</t>
+          <t>FROPCOM0008-2 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4249,7 +4249,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>FROPCOM0009 - COTATION QUESTION</t>
+          <t>FROPCOM0008_SQ002_</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -4262,7 +4262,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>FROPCOM0008-2 - COTATION QUESTION</t>
+          <t>FROPCOM0008-1 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -4275,7 +4275,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>FROPCOM0008_SQ002_</t>
+          <t>FROPCOM0008_SQ001_</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -4288,7 +4288,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>FROPCOM0008-1 - COTATION QUESTION</t>
+          <t>FROPCOM0007 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4301,7 +4301,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>FROPCOM0008_SQ001_</t>
+          <t>FROPCOM0007_SQ022_</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,7 +4314,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>FROPCOM0007 - COTATION QUESTION</t>
+          <t>FROPCOM0007_SQ024_</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,7 +4327,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ022_</t>
+          <t>FROPCOM0007_SQ020_</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4340,7 +4340,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ024_</t>
+          <t>FROPCOM0007_SQ018_</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -4353,7 +4353,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ020_</t>
+          <t>FROPCOM0007_SQ017_</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -4366,7 +4366,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ018_</t>
+          <t>FROPCOM0007_SQ016_</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4379,7 +4379,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ017_</t>
+          <t>FROPCOM0007_SQ015_</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4392,7 +4392,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ016_</t>
+          <t>FROPCOM0007_SQ014_</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -4405,7 +4405,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ014_</t>
+          <t>FROPCOM0007_SQ013_</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -4418,7 +4418,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ013_</t>
+          <t>FROPCOM0007_SQ012_</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -4522,7 +4522,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>FROPCOM0006 - COTATION QUESTION</t>
+          <t>FROPCOM0006_S7_</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -4535,7 +4535,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>FROPCOM0006_S7_</t>
+          <t>FROPCOM0006_S6_</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -4548,7 +4548,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>FROPCOM0006_S6_</t>
+          <t>FROPCOM0006_S5_</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -4561,7 +4561,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>FROPCOM0006_S5_</t>
+          <t>FROPCOM0006_S1_</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -4574,7 +4574,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>FROPCOM0006_S1_</t>
+          <t>FROPCOM0005 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -4587,7 +4587,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>FROPCOM0005 - COTATION QUESTION</t>
+          <t>FROPCOM0009</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -4600,7 +4600,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>FROPCOM0005</t>
+          <t>FROPCOM0010</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -4613,7 +4613,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>FROPCOM0009</t>
+          <t>SOUS SCOPE FROPCOM History of Falls</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -4626,7 +4626,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>FROPCOM0010</t>
+          <t>FROPCOM00010 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -4639,7 +4639,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>FROPCOM0002 - COTATION QUESTION</t>
+          <t>SPPB04 - COTATION</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -4652,7 +4652,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>FROPCOM00010 - COTATION QUESTION</t>
+          <t>SPPB04</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -4665,7 +4665,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>SPPB04 - COTATION</t>
+          <t>EXAMCLIN022</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -4678,7 +4678,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>SPPB04</t>
+          <t>EXAMCLIN023</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -4691,7 +4691,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>EXAMCLIN022</t>
+          <t>EXAMCLIN01</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -4704,7 +4704,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>EXAMCLIN023</t>
+          <t>SCORE FROP COM SCREEN</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -4717,7 +4717,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Variation du poids</t>
+          <t>FROPCOM0027 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -4730,7 +4730,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>EXAMCLIN01</t>
+          <t>FROPCOM0026_SQ001_</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -4743,7 +4743,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>EXAMCLIN01_SQ001_SQ001_</t>
+          <t>FROPCOM0025 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,7 +4756,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>FROPCOM0027 - COTATION QUESTION</t>
+          <t>FROPCOM0025</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4769,7 +4769,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>FROPCOM0026_SQ001_</t>
+          <t>FROPCOM0022 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,7 +4782,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>FROPCOM0025 - COTATION QUESTION</t>
+          <t>FROPCOM0023</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -4795,7 +4795,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>FROPCOM0025</t>
+          <t>FROPCOM0020 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4808,7 +4808,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>FROPCOM0022 - COTATION QUESTION</t>
+          <t>FROPCOM0021</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -4821,7 +4821,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>FROPCOM0023</t>
+          <t>FROPCOM0019 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -4834,7 +4834,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>FROPCOM0020 - COTATION QUESTION</t>
+          <t>FROPCOM0019</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -4847,7 +4847,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>FROPCOM0021</t>
+          <t>FROPCOM0018</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4860,7 +4860,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>FROPCOM0019 - COTATION QUESTION</t>
+          <t>FROPCOM0017 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -4873,7 +4873,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>FROPCOM0019</t>
+          <t>FROPCOM0017</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -4886,7 +4886,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>FROPCOM0018</t>
+          <t>FROPCOM00016 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -4899,7 +4899,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>FROPCOM0017 - COTATION QUESTION</t>
+          <t>FROPCOM00014 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -4912,7 +4912,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>FROPCOM0017</t>
+          <t>FROPCOM0014</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,7 +4925,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>FROPCOM00016 - COTATION QUESTION</t>
+          <t>FROPCOM00013 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -4938,7 +4938,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>FROPCOM00014 - COTATION QUESTION</t>
+          <t>FROPCOM0013</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -4951,7 +4951,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>FROPCOM0014</t>
+          <t>FROPCOM0012 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -4964,7 +4964,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>FROPCOM00013 - COTATION QUESTION</t>
+          <t>FROPCOM0012_SQ002_</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,7 +4977,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>FROPCOM0013</t>
+          <t>FROPCOM0012_SQ001_</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,7 +4990,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>FROPCOM0012_SQ002_</t>
+          <t>FROPCOM0005</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -5003,7 +5003,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>FROPCOM0012_SQ001_</t>
+          <t>FROPCOM0002 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -5016,7 +5016,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>SOUS SCOPE FROPCOM History of Falls</t>
+          <t>SF3609_SQ001_</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -5029,7 +5029,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>FROPCOM0001 SCORE</t>
+          <t>MNADEPISTAGEF</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -5042,7 +5042,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>SF36-23</t>
+          <t>MNADEPISTAGEB</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -5055,7 +5055,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>MNADEPISTAGEF</t>
+          <t>MNADEPISTAGEA</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -5068,7 +5068,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>MNADEPISTAGEB</t>
+          <t>Interpretation score MMSE</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -5081,7 +5081,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>MNADEPISTAGEA</t>
+          <t>MMSE08SCORETOTAL</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -5094,7 +5094,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Interpretation score MMSE</t>
+          <t>MMSE07PRAXIES_SQ001_</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -5107,7 +5107,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>MMSE08SCORETOTAL</t>
+          <t>MMSE06LANGAGE4_SQ001_</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -5120,7 +5120,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>MMSE07PRAXIES_SQ001_</t>
+          <t>MMSE06LANGAGE3_SQ001_</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -5133,7 +5133,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>MMSE06LANGAGE4_SQ001_</t>
+          <t>MMSE06RAPPEL_SQ003_</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -5146,7 +5146,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>MMSE06LANGAGE3_SQ001_</t>
+          <t>MMSE06RAPPEL_SQ002_</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -5159,7 +5159,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>MMSE06LANGAGE1_SQ003_</t>
+          <t>MMSE06RAPPEL_SQ001_</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -5172,7 +5172,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>MMSE06RAPPEL_SQ003_</t>
+          <t>MMSE05ATTETCALCUL_SQ005_</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -5185,7 +5185,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>MMSE06RAPPEL_SQ002_</t>
+          <t>MMSE05ATTETCALCUL_SQ004_</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -5198,7 +5198,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>MMSE06RAPPEL_SQ001_</t>
+          <t>MMSE05ATTETCALCUL_SQ003_</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5211,7 +5211,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>MMSE05ATTETCALCUL_SQ005_</t>
+          <t>MMSE05ATTETCALCUL_SQ002_</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -5224,7 +5224,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>MMSE05ATTETCALCUL_SQ004_</t>
+          <t>MMSE05ATTETCALCUL_SQ001_</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -5237,7 +5237,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>MMSE05ATTETCALCUL_SQ003_</t>
+          <t>HHIE02 SCORE INTERPRETATION_1_normal_3_pathologique_</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -5250,7 +5250,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>MMSE05ATTETCALCUL_SQ002_</t>
+          <t>HHIE02</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -5263,7 +5263,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>MMSE05ATTETCALCUL_SQ001_</t>
+          <t>HHIE01_SQ010_</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -5276,7 +5276,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>HHIE02 SCORE INTERPRETATION_1_normal_3_pathologique_</t>
+          <t>HHIE01_SQ009_</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -5289,7 +5289,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>HHIE02</t>
+          <t>HHIE01_SQ008_</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -5302,7 +5302,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>HHIE01_SQ010_</t>
+          <t>HHIE01_SQ007_</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -5315,7 +5315,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>HHIE01_SQ008_</t>
+          <t>HHIE01_SQ006_</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -5328,7 +5328,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>HHIE01_SQ007_</t>
+          <t>HHIE01_SQ005_</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,7 +5341,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>HHIE01_SQ006_</t>
+          <t>HHIE01_SQ004_</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -5354,7 +5354,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>HHIE01_SQ005_</t>
+          <t>HHIE01_SQ003_</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -5367,7 +5367,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>HHIE01_SQ004_</t>
+          <t>HHIE01_SQ002_</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -5380,7 +5380,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>HHIE01_SQ003_</t>
+          <t>HHIE01_SQ001_</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -5393,7 +5393,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>HHIE01_SQ002_</t>
+          <t>MNADEPISTAGED</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -5406,7 +5406,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>HHIE01_SQ001_</t>
+          <t>Interpretation score MNA depistage</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -5419,7 +5419,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>MNADEPISTAGED</t>
+          <t>FROPCOM0001 SCORE</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -5432,7 +5432,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Interpretation score MNA depistage</t>
+          <t>ACUITEVISUELLE01_SQ001_</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -5445,7 +5445,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>FROPCOM0001</t>
+          <t>FROPCOM0002</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -5458,7 +5458,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ACUITEVISUELLE01_SQ002_</t>
+          <t>FROPCOM0001</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5523,7 +5523,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>VINICODEX0004_SQ006_</t>
+          <t>SOUS SCORE CODES Cotation du test de horloge</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,7 +5536,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>VINICODEX003</t>
+          <t>VINICODEX002_SQ004_</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -5549,7 +5549,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>SOUS SCORE CODES Cotation du test de horloge</t>
+          <t>VINICODEX002_SQ003_</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -5562,7 +5562,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>VINICODEX002_SQ004_</t>
+          <t>VINICODEX002_SQ002_</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -5575,7 +5575,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>VINICODEX002_SQ003_</t>
+          <t>VINICODEX002_SQ001_</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -5588,7 +5588,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>VINICODEX002_SQ002_</t>
+          <t>SCORE ICOPE STEP1 REPERAGE GLOBAL</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -5601,7 +5601,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>VINICODEX002_SQ001_</t>
+          <t>ICOPE006 Trouble psychologique</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -5614,7 +5614,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>SCORE ICOPE STEP1 REPERAGE GLOBAL</t>
+          <t>ICOPE006_SQ002_</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -5627,7 +5627,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>ICOPE006 Trouble psychologique</t>
+          <t>ICOPE006_SQ001_</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -5640,7 +5640,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ICOPE006_SQ002_</t>
+          <t>ICOPE0041</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -5653,7 +5653,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ICOPE006_SQ001_</t>
+          <t>ICOPE004</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -5666,7 +5666,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ICOPE0041</t>
+          <t>ICOPE0052</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -5679,7 +5679,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ICOPE004</t>
+          <t>ICOPE05 TROUBLE AUDITIF</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -5692,7 +5692,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ICOPE0052</t>
+          <t>ICOPE0051_SQ002_</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -5705,7 +5705,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ICOPE0051_SQ002_</t>
+          <t>ICOPE0051_SQ001_</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -5718,7 +5718,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ICOPE0051_SQ001_</t>
+          <t>ICOPE003_SQ003_</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -5757,7 +5757,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Patient bénéficiant de Lunettes de vue</t>
+          <t>ACUITEVISUELLE01_SQ006_</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -5770,7 +5770,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ACUITEVISUELLE01_SQ006_</t>
+          <t>ACUITEVISUELLE01_SQ004_</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -5783,7 +5783,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ACUITEVISUELLE01_SQ005_</t>
+          <t>ACUITEVISUELLE01_SQ002_</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -5796,7 +5796,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ACUITEVISUELLE01_SQ004_</t>
+          <t>SPPB07 - COTATION</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -5809,7 +5809,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>ACUITEVISUELLE01_SQ003_</t>
+          <t>SPPB9</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -5822,7 +5822,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>SPPB07 - COTATION</t>
+          <t>SPPB09 - COTATION</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -5835,7 +5835,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>SPPB09 - COTATION</t>
+          <t>SF3603_SQ006_</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,7 +5848,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>ICOPE LOCOMOTION LEVER DE CHAISE NEGATIF</t>
+          <t>SF36-06</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -5861,7 +5861,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>SF3603_SQ006_</t>
+          <t>SF3603_SQ004_</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,7 +5874,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>SF3603_SQ005_</t>
+          <t>SF36-05</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -5887,7 +5887,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>SF36-06</t>
+          <t>SF3603_SQ003_</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -5900,7 +5900,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>SF3603_SQ004_</t>
+          <t>SF36-04</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -5913,7 +5913,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>SF36-05</t>
+          <t>SF3603_SQ002_</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -5926,7 +5926,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>SF3603_SQ003_</t>
+          <t>SF36-03</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -5939,7 +5939,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>SF36-04</t>
+          <t>SF3603_SQ001_</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -5952,7 +5952,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>SF3603_SQ002_</t>
+          <t>SF36-02</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -5965,7 +5965,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>SF36-03</t>
+          <t>SF3602</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -5978,7 +5978,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>SF3603_SQ001_</t>
+          <t>SF36-01</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -5991,7 +5991,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>SF36-02</t>
+          <t>FRAGIRE SCORE TOTAL</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -6004,7 +6004,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>SF36-01</t>
+          <t>FRAGIRE17 -  COTATION</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -6017,7 +6017,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>FRAGIRE SCORE TOTAL</t>
+          <t>FRAGIRE17</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -6030,7 +6030,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>FRAGIRE CALCUL TEST 3 VITMARCH.</t>
+          <t>FRAGIRE16 CALCUL</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -6043,7 +6043,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>FRAGIRE17 -  COTATION</t>
+          <t>FRAGIRE15 CALCUL</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -6056,7 +6056,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>FRAGIRE17</t>
+          <t>FRAGIRE15</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -6069,7 +6069,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>FRAGIRE16 CALCUL</t>
+          <t>FRAGIRE13 -  COTATION</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -6082,7 +6082,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>FRAGIRE15 CALCUL</t>
+          <t>FRAGIRE12 -  COTATION</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -6095,7 +6095,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>FRAGIRE15</t>
+          <t>FRAGIRE11 -  COTATION</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -6108,7 +6108,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>FRAGIRE13 -  COTATION</t>
+          <t>FRAGIRE11</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -6121,7 +6121,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>FRAGIRE12 -  COTATION</t>
+          <t>FRAGIRE10-  COTATION</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -6134,7 +6134,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>FRAGIRE12</t>
+          <t>FRAGIRE10</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -6147,7 +6147,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>FRAGIRE11 -  COTATION</t>
+          <t>FRAGIRE09 CALCUL</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -6160,7 +6160,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>FRAGIRE11</t>
+          <t>FRAGIRE09</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -6173,7 +6173,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>FRAGIRE10-  COTATION</t>
+          <t>FRAGIRE 08 CALCUL</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -6186,7 +6186,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>FRAGIRE10</t>
+          <t>FRAGIRE08</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6199,7 +6199,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>FRAGIRE09 CALCUL</t>
+          <t>SF36-07</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -6212,7 +6212,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>FRAGIRE09</t>
+          <t>SF36-08</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -6225,7 +6225,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>SF36-07</t>
+          <t>ICOPE LOCOMOTION LEVER DE CHAISE NEGATIF</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -6238,7 +6238,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>SF36-08</t>
+          <t>SF3603_SQ007_</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -6251,7 +6251,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ001_</t>
+          <t>SF36-22</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -6264,7 +6264,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>SF3603_SQ007_</t>
+          <t>SF3608</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -6277,7 +6277,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>SF3609_SQ001_</t>
+          <t>SF36-21</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -6290,7 +6290,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>SF36-22</t>
+          <t>SF3607</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -6303,7 +6303,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>SF3608</t>
+          <t>SF26-20</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -6316,7 +6316,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>SF36-21</t>
+          <t>SF3606</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -6329,7 +6329,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>SF3607</t>
+          <t>SF36-19</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -6342,7 +6342,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>SF26-20</t>
+          <t>SF3605_SQ003_</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -6355,7 +6355,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>SF3606</t>
+          <t>SF36-18</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -6368,7 +6368,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>SF36-19</t>
+          <t>SF3605_SQ002_</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -6381,7 +6381,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>SF3605_SQ003_</t>
+          <t>SF36-17</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -6394,7 +6394,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>SF36-18</t>
+          <t>SF3605_SQ001_</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,7 +6407,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>SF3605_SQ002_</t>
+          <t>SF36-16</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -6420,7 +6420,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>SF36-17</t>
+          <t>SF3604_SQ004_</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,7 +6433,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>SF3605_SQ001_</t>
+          <t>SF36-15</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -6446,7 +6446,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>SF36-16</t>
+          <t>SF3604_SQ003_</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -6459,7 +6459,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>SF3604_SQ004_</t>
+          <t>SF36-14</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -6472,7 +6472,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>SF36-15</t>
+          <t>SF3604_SQ002_</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -6485,7 +6485,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>SF3604_SQ003_</t>
+          <t>SF36-13</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -6498,7 +6498,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>SF36-14</t>
+          <t>VINCQ08</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -6511,7 +6511,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>SF3604_SQ002_</t>
+          <t>SF36-12</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -6524,7 +6524,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>SF3604_SQ001_</t>
+          <t>SF3603_SQ010_</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -6537,7 +6537,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>SF36-12</t>
+          <t>SF36-11</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -6550,7 +6550,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>SF3603_SQ010_</t>
+          <t>SF3603_SQ009_</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -6563,7 +6563,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>SF36-11</t>
+          <t>SF36-10</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -6576,7 +6576,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>SF3603_SQ009_</t>
+          <t>SF3603_SQ008_</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -6589,7 +6589,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>SF36-10</t>
+          <t>SF36-09</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -6602,7 +6602,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>SF3603_SQ008_</t>
+          <t>FRAGIRE07 CALCUL</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -6615,7 +6615,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>SF36-09</t>
+          <t>FRAGIRE07</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -6628,7 +6628,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>FRAGIRE 08 CALCUL</t>
+          <t>SCORE TOTAL STI</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -6641,7 +6641,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>FRAGIRE07 CALCUL</t>
+          <t>FRAGIRE06TEST1_SQ001_SQ003_</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -6654,7 +6654,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>FRAGIRE07</t>
+          <t>EPICE000_SQ011_</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -6667,7 +6667,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>SCORE TOTAL STI</t>
+          <t>EPICE000_SQ010_</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -6680,7 +6680,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>HADS003</t>
+          <t>EPICE000_SQ009_</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -6693,7 +6693,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>HADS001</t>
+          <t>EPICE000_SQ008_</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -6706,7 +6706,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>PRECARITE SCORE EPICE</t>
+          <t>EPICE000_SQ007_</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -6719,7 +6719,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>EPICE000_SQ011_</t>
+          <t>EPICE000_SQ006_</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -6732,7 +6732,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>EPICE000_SQ010_</t>
+          <t>EPICE000_SQ005_</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -6745,7 +6745,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>EPICE000_SQ009_</t>
+          <t>EPICE000_SQ004_</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -6758,7 +6758,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>EPICE000_SQ008_</t>
+          <t>EPICE000_SQ003_</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -6771,7 +6771,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>EPICE000_SQ007_</t>
+          <t>EPICE000_SQ002_</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,7 +6784,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>EPICE000_SQ006_</t>
+          <t>EPICE000_SQ001_</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -6797,7 +6797,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>EPICE000_SQ005_</t>
+          <t>MFESCALE SCORE GLOBAL</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -6810,7 +6810,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>EPICE000_SQ004_</t>
+          <t>MFESCALE Dimension activites d exterieur  items_10_14</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -6823,7 +6823,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>EPICE000_SQ003_</t>
+          <t>MFESCALE000_SQ014_</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -6836,7 +6836,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>EPICE000_SQ002_</t>
+          <t>MFESCALE000_SQ013_</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -6849,7 +6849,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>EPICE000_SQ001_</t>
+          <t>MFESCALE000_SQ012_</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -6862,7 +6862,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>MFESCALE Dimension activites d interieur items_1_9</t>
+          <t>MFESCALE000_SQ011_</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -6875,7 +6875,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ013_</t>
+          <t>MFESCALE000_SQ010_</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -6888,7 +6888,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ012_</t>
+          <t>MFESCALE000_SQ009_</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -6901,7 +6901,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ011_</t>
+          <t>MFESCALE000_SQ008_</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,7 +6914,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ010_</t>
+          <t>MFESCALE000_SQ007_</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -6927,7 +6927,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ009_</t>
+          <t>MFESCALE000_SQ006_</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -6940,7 +6940,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ008_</t>
+          <t>MFESCALE000_SQ005_</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -6953,7 +6953,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ007_</t>
+          <t>MFESCALE000_SQ004_</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -6966,7 +6966,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ006_</t>
+          <t>MFESCALE000_SQ003_</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -6979,7 +6979,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ005_</t>
+          <t>MFESCALE000_SQ002_</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -6992,7 +6992,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ004_</t>
+          <t>MFESCALE000_SQ001_</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -7005,7 +7005,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ003_</t>
+          <t>SCORE EPICE GLOBAL</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -7018,7 +7018,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ002_</t>
+          <t>PRECARITE SCORE EPICE</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -7031,7 +7031,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>HADS004</t>
+          <t>HADS001</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -7044,7 +7044,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>HADS005</t>
+          <t>SAPASDEMORAN_SQ002_</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -7057,7 +7057,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>HADS006</t>
+          <t>FRAGIRE05 CALCUL</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -7070,7 +7070,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>SAPASDEMORAN_SQ006_</t>
+          <t>FRAGIRE05</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -7083,7 +7083,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>FRAGIRE06TEST1_SQ001_SQ004_</t>
+          <t>FRAGIRE04</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -7096,7 +7096,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>FRAGIRE06TEST1_SQ001_SQ002_</t>
+          <t>FRAGIRE02 CALCUL</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -7109,7 +7109,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>FRAGIRE05 CALCUL</t>
+          <t>FRAGIRE02</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -7122,7 +7122,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>FRAGIRE05</t>
+          <t>SAPAS DE MORAN TROUBLE DE LA PERSONNALITE</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -7135,7 +7135,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>FRAGIRE04 CALCUL</t>
+          <t>SCORE SAPAS DE MORAN</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -7148,7 +7148,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>FRAGIRE04</t>
+          <t>SAPASDEMORAN_SQ008_</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -7161,7 +7161,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>FRAGIRE02 CALCUL</t>
+          <t>SAPASDEMORAN_SQ006_</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -7174,7 +7174,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>FRAGIRE02</t>
+          <t>SAPASDEMORAN_SQ005_</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -7187,7 +7187,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>FRAGIRE01_SQ001_</t>
+          <t>SAPASDEMORAN_SQ004_</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -7200,7 +7200,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>SAPAS DE MORAN TROUBLE DE LA PERSONNALITE</t>
+          <t>SAPASDEMORAN_SQ003_</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -7213,7 +7213,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>SCORE SAPAS DE MORAN</t>
+          <t>SAPASDEMORAN_SQ001_</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -7226,7 +7226,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>SAPASDEMORAN_SQ008_</t>
+          <t>HADS003</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -7239,7 +7239,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>SAPASDEMORAN_SQ005_</t>
+          <t>HADS TOTAL D Pathologique_sup_ou_egal_11</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -7252,7 +7252,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>HADS007</t>
+          <t>HADS TOTAL D</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -7265,7 +7265,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>SAPASDEMORAN_SQ004_</t>
+          <t>HADS TOTAL A Pathologique_sup_ou_egal_11</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -7278,7 +7278,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>SAPASDEMORAN_SQ003_</t>
+          <t>HADS014</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7291,7 +7291,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>SAPASDEMORAN_SQ002_</t>
+          <t>HADS013</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -7304,7 +7304,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>SAPASDEMORAN_SQ001_</t>
+          <t>HADS012</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -7317,7 +7317,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>HADS TOTAL D Pathologique_sup_ou_egal_11</t>
+          <t>HADS009</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -7330,7 +7330,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>HADS TOTAL D</t>
+          <t>HADS008</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -7343,7 +7343,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>HADS TOTAL A Pathologique_sup_ou_egal_11</t>
+          <t>HADS007</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -7356,7 +7356,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>HADS014</t>
+          <t>HADS006</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -7369,7 +7369,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>HADS013</t>
+          <t>HADS005</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -7382,7 +7382,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>HADS012</t>
+          <t>HADS004</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -7395,39 +7395,13 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>HADS010</t>
+          <t>STADE FRAGILITE SELON FRAGIRE</t>
         </is>
       </c>
       <c r="B536" t="n">
         <v>0</v>
       </c>
       <c r="C536" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>HADS008</t>
-        </is>
-      </c>
-      <c r="B537" t="n">
-        <v>0</v>
-      </c>
-      <c r="C537" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>SF36-13</t>
-        </is>
-      </c>
-      <c r="B538" t="n">
-        <v>0</v>
-      </c>
-      <c r="C538" t="n">
         <v>0</v>
       </c>
     </row>
